--- a/biology/Zoologie/Aeria_elara/Aeria_elara.xlsx
+++ b/biology/Zoologie/Aeria_elara/Aeria_elara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeria elara est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Aeria.
 </t>
@@ -511,47 +523,121 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aeria elara a été décrit par William Chapman Hewitson en 1855 sous le nom initial de Ithomia elara[1].
-Noms vernaculaires
-En anglais Aeria elara se nomme Elara Clearwing[2].
-Sous-espèces
-Aeria elara elara; présent au Venezuela et au Brésil[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeria elara a été décrit par William Chapman Hewitson en 1855 sous le nom initial de Ithomia elara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aeria_elara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeria_elara</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais Aeria elara se nomme Elara Clearwing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aeria_elara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeria_elara</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aeria elara elara; présent au Venezuela et au Brésil.
 Aeria elara elarina (Oberthür, 1879); présent au Brésil.
 Aeria elara nigra Vitale &amp; G. Rodríguez, 2008; présent en Colombie
 Aeria elara ssp; présent au Brésil.
 Aeria elara ssp; présent au Pérou.
 Aeria elara ssp; présent au Brésil.
-Aeria elara ssp; présent en Colombie[1].</t>
+Aeria elara ssp; présent en Colombie.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Aeria_elara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aeria_elara</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeria elara est un papillon aux longues ailes antérieures bien plus longues que les ailes postérieures, à apex arrondi et bord interne concave. 
 Sur le dessus les ailes sont de couleur blanc translucide bordées de noir avec aux ailes antérieures une bande noire séparant une bande blanche près de l'apex du reste de l'aile. 
@@ -560,66 +646,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aeria_elara</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aeria_elara</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeria  elara est présent au Venezuela, en Colombie, au Pérou et au Brésil,.
+</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Aeria_elara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aeria_elara</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeria  elara est présent au Venezuela, en Colombie, au Pérou et au Brésil[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Aeria elara, sur Wikimedia CommonsAeria elara, sur Wikispecies
 </t>
